--- a/medicine/Sexualité et sexologie/Eat_the_Schoolgirl/Eat_the_Schoolgirl.xlsx
+++ b/medicine/Sexualité et sexologie/Eat_the_Schoolgirl/Eat_the_Schoolgirl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eat the Schoolgirl (コギャル喰い　大阪テレクラ篇, Kogyaru-gui: Oosaka terekura hen?) est un film japonais réalisé par Naoyuki Tomomatsu, sorti en 1997.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jeune yakuza voit débarquer chez lui une jeune hôtesse de téléphone érotique. Perdant petit à petit pied avec la réalité, il est persuadé d'entendre, par la voix de la fille, des appels au meurtre qu'il ne peut réfréner.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Eat the Schoolgirl
 Titre original : Kogyaru-gui: Oosaka terekura hen
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kozue Aoki
 Yuuki Fujita
